--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Btc-Egfr.xlsx
@@ -549,10 +549,10 @@
         <v>1.462727</v>
       </c>
       <c r="I2">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J2">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N2">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P2">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q2">
-        <v>0.3406369383060001</v>
+        <v>0.7973552412311111</v>
       </c>
       <c r="R2">
-        <v>3.065732444754</v>
+        <v>7.17619717108</v>
       </c>
       <c r="S2">
-        <v>0.00225672557543617</v>
+        <v>0.006256128016315597</v>
       </c>
       <c r="T2">
-        <v>0.00225672557543617</v>
+        <v>0.006256128016315596</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>1.462727</v>
       </c>
       <c r="I3">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J3">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N3">
         <v>137.749091</v>
       </c>
       <c r="O3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P3">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q3">
-        <v>22.38770162568411</v>
+        <v>22.38770162568412</v>
       </c>
       <c r="R3">
         <v>201.489314631157</v>
       </c>
       <c r="S3">
-        <v>0.1483189083520051</v>
+        <v>0.1756561192789106</v>
       </c>
       <c r="T3">
-        <v>0.1483189083520051</v>
+        <v>0.1756561192789106</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>1.462727</v>
       </c>
       <c r="I4">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J4">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N4">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P4">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q4">
-        <v>0.1136374728525556</v>
+        <v>0.4095461698012222</v>
       </c>
       <c r="R4">
-        <v>1.022737255673</v>
+        <v>3.685915528211</v>
       </c>
       <c r="S4">
-        <v>0.0007528502122806287</v>
+        <v>0.003213339719084548</v>
       </c>
       <c r="T4">
-        <v>0.0007528502122806288</v>
+        <v>0.003213339719084548</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>1.462727</v>
       </c>
       <c r="I5">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J5">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N5">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P5">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q5">
-        <v>9.647477525559223</v>
+        <v>3.701201350411444</v>
       </c>
       <c r="R5">
-        <v>86.82729773003301</v>
+        <v>33.310812153703</v>
       </c>
       <c r="S5">
-        <v>0.06391470454920908</v>
+        <v>0.02903999154327085</v>
       </c>
       <c r="T5">
-        <v>0.0639147045492091</v>
+        <v>0.02903999154327085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>1.462727</v>
       </c>
       <c r="I6">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J6">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N6">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P6">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q6">
-        <v>1.238401562027778</v>
+        <v>2.330834508746333</v>
       </c>
       <c r="R6">
-        <v>11.14561405825</v>
+        <v>20.977510578717</v>
       </c>
       <c r="S6">
-        <v>0.008204431649681022</v>
+        <v>0.01828795788568296</v>
       </c>
       <c r="T6">
-        <v>0.008204431649681024</v>
+        <v>0.01828795788568296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,40 +859,40 @@
         <v>1.462727</v>
       </c>
       <c r="I7">
-        <v>0.2248629893758157</v>
+        <v>0.233114009085334</v>
       </c>
       <c r="J7">
-        <v>0.2248629893758157</v>
+        <v>0.2331140090853341</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N7">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P7">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q7">
-        <v>0.213640054712</v>
+        <v>0.084178476123</v>
       </c>
       <c r="R7">
-        <v>1.922760492408</v>
+        <v>0.757606285107</v>
       </c>
       <c r="S7">
-        <v>0.001415369037203622</v>
+        <v>0.0006604726420694727</v>
       </c>
       <c r="T7">
-        <v>0.001415369037203623</v>
+        <v>0.0006604726420694727</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H8">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I8">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J8">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6986340000000001</v>
+        <v>1.635346666666667</v>
       </c>
       <c r="N8">
-        <v>2.095902</v>
+        <v>4.90604</v>
       </c>
       <c r="O8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876748</v>
       </c>
       <c r="P8">
-        <v>0.0100360027308206</v>
+        <v>0.02683720313876747</v>
       </c>
       <c r="Q8">
-        <v>1.174227465354</v>
+        <v>2.623096598448889</v>
       </c>
       <c r="R8">
-        <v>10.568047188186</v>
+        <v>23.60786938604</v>
       </c>
       <c r="S8">
-        <v>0.00777927715538443</v>
+        <v>0.02058107512245188</v>
       </c>
       <c r="T8">
-        <v>0.00777927715538443</v>
+        <v>0.02058107512245188</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H9">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I9">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J9">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.91636366666666</v>
+        <v>45.91636366666668</v>
       </c>
       <c r="N9">
         <v>137.749091</v>
       </c>
       <c r="O9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331003</v>
       </c>
       <c r="P9">
-        <v>0.6595968005393645</v>
+        <v>0.7535202194331002</v>
       </c>
       <c r="Q9">
-        <v>77.17382109456811</v>
+        <v>73.64986262678791</v>
       </c>
       <c r="R9">
-        <v>694.5643898511131</v>
+        <v>662.8487636410912</v>
       </c>
       <c r="S9">
-        <v>0.5112778921873594</v>
+        <v>0.5778641001541897</v>
       </c>
       <c r="T9">
-        <v>0.5112778921873594</v>
+        <v>0.5778641001541895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H10">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I10">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J10">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2330663333333333</v>
+        <v>0.8399643333333332</v>
       </c>
       <c r="N10">
-        <v>0.699199</v>
+        <v>2.519893</v>
       </c>
       <c r="O10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="P10">
-        <v>0.003348039685723394</v>
+        <v>0.01378441275019327</v>
       </c>
       <c r="Q10">
-        <v>0.3917256959285557</v>
+        <v>1.347303070654778</v>
       </c>
       <c r="R10">
-        <v>3.525531263357001</v>
+        <v>12.125727635893</v>
       </c>
       <c r="S10">
-        <v>0.002595189473442765</v>
+        <v>0.01057107303110872</v>
       </c>
       <c r="T10">
-        <v>0.002595189473442765</v>
+        <v>0.01057107303110872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H11">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I11">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J11">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.78662633333333</v>
+        <v>7.591029666666667</v>
       </c>
       <c r="N11">
-        <v>59.35987900000001</v>
+        <v>22.773089</v>
       </c>
       <c r="O11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="P11">
-        <v>0.284238436599221</v>
+        <v>0.1245742015128762</v>
       </c>
       <c r="Q11">
-        <v>33.25632604095523</v>
+        <v>12.17601411567656</v>
       </c>
       <c r="R11">
-        <v>299.3069343685971</v>
+        <v>109.584127041089</v>
       </c>
       <c r="S11">
-        <v>0.2203237320500119</v>
+        <v>0.09553420996960532</v>
       </c>
       <c r="T11">
-        <v>0.2203237320500119</v>
+        <v>0.09553420996960531</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H12">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I12">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J12">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.539916666666667</v>
+        <v>4.780457</v>
       </c>
       <c r="N12">
-        <v>7.61975</v>
+        <v>14.341371</v>
       </c>
       <c r="O12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336118</v>
       </c>
       <c r="P12">
-        <v>0.03648635852638638</v>
+        <v>0.07845070297336117</v>
       </c>
       <c r="Q12">
-        <v>4.268959011027778</v>
+        <v>7.667854621485668</v>
       </c>
       <c r="R12">
-        <v>38.42063109925001</v>
+        <v>69.01069159337101</v>
       </c>
       <c r="S12">
-        <v>0.02828192687670536</v>
+        <v>0.06016274508767822</v>
       </c>
       <c r="T12">
-        <v>0.02828192687670536</v>
+        <v>0.06016274508767821</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.680747666666667</v>
+        <v>1.604000333333333</v>
       </c>
       <c r="H13">
-        <v>5.042243000000001</v>
+        <v>4.812001</v>
       </c>
       <c r="I13">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="J13">
-        <v>0.7751370106241843</v>
+        <v>0.7668859909146659</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.4381679999999999</v>
+        <v>0.172647</v>
       </c>
       <c r="N13">
-        <v>1.314504</v>
+        <v>0.517941</v>
       </c>
       <c r="O13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="P13">
-        <v>0.006294361918484071</v>
+        <v>0.002833260191701732</v>
       </c>
       <c r="Q13">
-        <v>0.736449843608</v>
+        <v>0.276925845549</v>
       </c>
       <c r="R13">
-        <v>6.628048592472001</v>
+        <v>2.492332609941</v>
       </c>
       <c r="S13">
-        <v>0.004878992881280448</v>
+        <v>0.002172787549632259</v>
       </c>
       <c r="T13">
-        <v>0.004878992881280448</v>
+        <v>0.002172787549632259</v>
       </c>
     </row>
   </sheetData>
